--- a/Internship_list.xlsx
+++ b/Internship_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimkellypercine/Desktop/Brandeis_internship/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimkellypercine/Desktop/Brandeis_internship_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E246F3-D03E-AA49-AB57-7CE0E2492BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D69B4E7-7418-7B4F-AFC4-A6012C788B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>FaceBook</t>
   </si>
@@ -53,23 +53,37 @@
     <t>Publicis Sapient</t>
   </si>
   <si>
-    <t>COMPANIES</t>
-  </si>
-  <si>
-    <t>LINKS</t>
-  </si>
-  <si>
     <t>NOTES</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Great Time</t>
+  </si>
+  <si>
+    <t>jpe@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,13 +106,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,48 +431,86 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="fpstate=tldetail&amp;htivrt=jobs&amp;htiq=facebook+internship&amp;htidocid=kBV7bWXmAS4AAAAAAAAAAA%3D%3D" xr:uid="{909DAFEB-92DE-BB49-A30E-93C06EEED98B}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{8618966E-5F5F-0E4B-88B5-065B316B3433}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{C446EC75-242A-584F-A922-3FB884B0CC6B}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{2C085D38-CBEB-D640-8234-C83D3873C5EE}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{80CF4788-BA5C-E44C-9909-87342E820839}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{03533F32-37A0-914D-8409-D169F14CD492}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Internship_list.xlsx
+++ b/Internship_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimkellypercine/Desktop/Brandeis_internship_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D69B4E7-7418-7B4F-AFC4-A6012C788B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC42226-F125-0C45-BAD4-AD79B6F6B568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>FaceBook</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>jpe@gmail.com</t>
+  </si>
+  <si>
+    <t>Bad time</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>

--- a/Internship_list.xlsx
+++ b/Internship_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimkellypercine/Desktop/Brandeis_internship_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC42226-F125-0C45-BAD4-AD79B6F6B568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7D6B27-095D-0B48-8080-9B85BBF4D744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>FaceBook</t>
   </si>
@@ -69,6 +69,30 @@
   </si>
   <si>
     <t>Bad time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium </t>
+  </si>
+  <si>
+    <t>he@gmail.com</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit </t>
+  </si>
+  <si>
+    <t>Walgreens</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>1@gmail.com</t>
+  </si>
+  <si>
+    <t>2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -431,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1F76A8-0130-C446-9D0C-D4EA4DFF9EEB}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,6 +527,39 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -513,6 +570,9 @@
     <hyperlink ref="C4" r:id="rId4" xr:uid="{2C085D38-CBEB-D640-8234-C83D3873C5EE}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{80CF4788-BA5C-E44C-9909-87342E820839}"/>
     <hyperlink ref="C6" r:id="rId6" xr:uid="{03533F32-37A0-914D-8409-D169F14CD492}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{B585DC4C-9744-944B-95AE-E40E9ACB47D3}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{CE3656BA-DB1A-874F-B816-408BEFB64A14}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{C6FC8819-3A6B-8F48-AEAC-C4738F404E90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Internship_list.xlsx
+++ b/Internship_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimkellypercine/Desktop/Brandeis_internship_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7D6B27-095D-0B48-8080-9B85BBF4D744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3C988C-396C-AF4B-BC85-2C9090BBD7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
   </bookViews>
@@ -137,9 +137,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -455,15 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1F76A8-0130-C446-9D0C-D4EA4DFF9EEB}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -474,105 +477,123 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="fpstate=tldetail&amp;htivrt=jobs&amp;htiq=facebook+internship&amp;htidocid=kBV7bWXmAS4AAAAAAAAAAA%3D%3D" xr:uid="{909DAFEB-92DE-BB49-A30E-93C06EEED98B}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{8618966E-5F5F-0E4B-88B5-065B316B3433}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{C446EC75-242A-584F-A922-3FB884B0CC6B}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{2C085D38-CBEB-D640-8234-C83D3873C5EE}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{80CF4788-BA5C-E44C-9909-87342E820839}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{03533F32-37A0-914D-8409-D169F14CD492}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{B585DC4C-9744-944B-95AE-E40E9ACB47D3}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{CE3656BA-DB1A-874F-B816-408BEFB64A14}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{C6FC8819-3A6B-8F48-AEAC-C4738F404E90}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{C6FC8819-3A6B-8F48-AEAC-C4738F404E90}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{CE3656BA-DB1A-874F-B816-408BEFB64A14}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{B585DC4C-9744-944B-95AE-E40E9ACB47D3}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{03533F32-37A0-914D-8409-D169F14CD492}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{80CF4788-BA5C-E44C-9909-87342E820839}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{2C085D38-CBEB-D640-8234-C83D3873C5EE}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{C446EC75-242A-584F-A922-3FB884B0CC6B}"/>
+    <hyperlink ref="C2" r:id="rId9" xr:uid="{8618966E-5F5F-0E4B-88B5-065B316B3433}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Internship_list.xlsx
+++ b/Internship_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimkellypercine/Desktop/Brandeis_internship_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3C988C-396C-AF4B-BC85-2C9090BBD7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5EB7E9-33FE-4849-888E-C7560CE75DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>FaceBook</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>2@gmail.com</t>
+  </si>
+  <si>
+    <t>walmart</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -458,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1F76A8-0130-C446-9D0C-D4EA4DFF9EEB}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,8 +579,86 @@
       </c>
       <c r="D9" s="2"/>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C2:D2"/>
@@ -594,6 +678,12 @@
     <hyperlink ref="C4" r:id="rId7" xr:uid="{2C085D38-CBEB-D640-8234-C83D3873C5EE}"/>
     <hyperlink ref="C3" r:id="rId8" xr:uid="{C446EC75-242A-584F-A922-3FB884B0CC6B}"/>
     <hyperlink ref="C2" r:id="rId9" xr:uid="{8618966E-5F5F-0E4B-88B5-065B316B3433}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{65FA86FC-5D50-CC49-B43D-B9F6F0563C8F}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{E2F0352A-3565-0645-A246-F7E9D77505F3}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{B2951CC3-C087-9E4C-B9F3-0B4749403891}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{3BC03A1B-9B40-824D-8A8E-D02E1E761D17}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{DAE23DF7-16AD-4F4E-A9F9-B5330639D476}"/>
+    <hyperlink ref="C15" r:id="rId15" xr:uid="{46075C5F-C294-5746-9254-E99DFFD78C58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Internship_list.xlsx
+++ b/Internship_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimkellypercine/Desktop/Brandeis_internship_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5EB7E9-33FE-4849-888E-C7560CE75DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E250C9F3-2C0F-9949-9D46-3447FC01335A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>FaceBook</t>
   </si>
@@ -59,21 +59,9 @@
     <t>COMPANY</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Great Time</t>
-  </si>
-  <si>
     <t>jpe@gmail.com</t>
   </si>
   <si>
-    <t>Bad time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium </t>
-  </si>
-  <si>
     <t>he@gmail.com</t>
   </si>
   <si>
@@ -86,9 +74,6 @@
     <t>Walgreens</t>
   </si>
   <si>
-    <t>Hard</t>
-  </si>
-  <si>
     <t>1@gmail.com</t>
   </si>
   <si>
@@ -98,7 +83,13 @@
     <t>walmart</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>Bad time because it was hard and then I automatucally loved it</t>
+  </si>
+  <si>
+    <t>RANK 1-5</t>
   </si>
 </sst>
 </file>
@@ -143,12 +134,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -464,226 +461,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1F76A8-0130-C446-9D0C-D4EA4DFF9EEB}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="fpstate=tldetail&amp;htivrt=jobs&amp;htiq=facebook+internship&amp;htidocid=kBV7bWXmAS4AAAAAAAAAAA%3D%3D" xr:uid="{909DAFEB-92DE-BB49-A30E-93C06EEED98B}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{C6FC8819-3A6B-8F48-AEAC-C4738F404E90}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{CE3656BA-DB1A-874F-B816-408BEFB64A14}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{B585DC4C-9744-944B-95AE-E40E9ACB47D3}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{03533F32-37A0-914D-8409-D169F14CD492}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{80CF4788-BA5C-E44C-9909-87342E820839}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{2C085D38-CBEB-D640-8234-C83D3873C5EE}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{C446EC75-242A-584F-A922-3FB884B0CC6B}"/>
-    <hyperlink ref="C2" r:id="rId9" xr:uid="{8618966E-5F5F-0E4B-88B5-065B316B3433}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{65FA86FC-5D50-CC49-B43D-B9F6F0563C8F}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{E2F0352A-3565-0645-A246-F7E9D77505F3}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{B2951CC3-C087-9E4C-B9F3-0B4749403891}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{3BC03A1B-9B40-824D-8A8E-D02E1E761D17}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{DAE23DF7-16AD-4F4E-A9F9-B5330639D476}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{46075C5F-C294-5746-9254-E99DFFD78C58}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{C6FC8819-3A6B-8F48-AEAC-C4738F404E90}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{CE3656BA-DB1A-874F-B816-408BEFB64A14}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{B585DC4C-9744-944B-95AE-E40E9ACB47D3}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{03533F32-37A0-914D-8409-D169F14CD492}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{80CF4788-BA5C-E44C-9909-87342E820839}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{2C085D38-CBEB-D640-8234-C83D3873C5EE}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{C446EC75-242A-584F-A922-3FB884B0CC6B}"/>
+    <hyperlink ref="D2" r:id="rId9" xr:uid="{8618966E-5F5F-0E4B-88B5-065B316B3433}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{65FA86FC-5D50-CC49-B43D-B9F6F0563C8F}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{E2F0352A-3565-0645-A246-F7E9D77505F3}"/>
+    <hyperlink ref="D12" r:id="rId12" xr:uid="{B2951CC3-C087-9E4C-B9F3-0B4749403891}"/>
+    <hyperlink ref="D13" r:id="rId13" xr:uid="{3BC03A1B-9B40-824D-8A8E-D02E1E761D17}"/>
+    <hyperlink ref="D14" r:id="rId14" xr:uid="{DAE23DF7-16AD-4F4E-A9F9-B5330639D476}"/>
+    <hyperlink ref="D15" r:id="rId15" xr:uid="{46075C5F-C294-5746-9254-E99DFFD78C58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Internship_list.xlsx
+++ b/Internship_list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimkellypercine/Desktop/Brandeis_internship_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E250C9F3-2C0F-9949-9D46-3447FC01335A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B307F1B-3847-AF4A-8E34-C4021129FA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
+    <workbookView xWindow="2400" yWindow="2520" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
-  <si>
-    <t>FaceBook</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Amazon</t>
   </si>
   <si>
-    <t>Apple</t>
-  </si>
-  <si>
     <t>Microsoft</t>
   </si>
   <si>
@@ -59,37 +53,133 @@
     <t>COMPANY</t>
   </si>
   <si>
-    <t>jpe@gmail.com</t>
-  </si>
-  <si>
-    <t>he@gmail.com</t>
-  </si>
-  <si>
-    <t>Intel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mit </t>
-  </si>
-  <si>
-    <t>Walgreens</t>
-  </si>
-  <si>
-    <t>1@gmail.com</t>
-  </si>
-  <si>
-    <t>2@gmail.com</t>
-  </si>
-  <si>
-    <t>walmart</t>
-  </si>
-  <si>
     <t>EMAIL</t>
   </si>
   <si>
-    <t>Bad time because it was hard and then I automatucally loved it</t>
-  </si>
-  <si>
     <t>RANK 1-5</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Make sure you show strength in good technical communication during the interviews; Also apply early</t>
+  </si>
+  <si>
+    <t>Start practicing behavioral/basic interview questions (questions about what you would do in certain situations in the workspace) and have in your mind certain experiences from your life that you can draw from to answer them.</t>
+  </si>
+  <si>
+    <t>fduverglas@brandeis.edu</t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>Prepare early, apply early, don’t be discouraged</t>
+  </si>
+  <si>
+    <t>danielhariyanto@brandeis.edu</t>
+  </si>
+  <si>
+    <t>blacy@brandeis.edu</t>
+  </si>
+  <si>
+    <t>When you take the time outside the classroom to develop your skills in practical area in which you enjoy your employer will take notice and it will benefit you in the long run in comparison to those who don't take the initiative to hold themselves accountable while they pursue things in which they are most passionate.</t>
+  </si>
+  <si>
+    <t>andrewng@brandeis.edu</t>
+  </si>
+  <si>
+    <t>CommScope</t>
+  </si>
+  <si>
+    <t>IMC Trading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. start apply early (I started applying around June and got the first offer late August for next year internship) 2. build a great resume (ask your friends, people in the industry to read your resume, the more the better), do side projects, hackathons, etc... things that showcase the skills that companies are looking for </t>
+  </si>
+  <si>
+    <t>rick@treitman.com</t>
+  </si>
+  <si>
+    <t>Get started early.</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>steve.beckhardt@gmail.com</t>
+  </si>
+  <si>
+    <t>Sonos</t>
+  </si>
+  <si>
+    <t>Gnar company</t>
+  </si>
+  <si>
+    <t>lfreed@irobot.com</t>
+  </si>
+  <si>
+    <t>iRobot</t>
+  </si>
+  <si>
+    <t>Talk about yourself. projects, things you did to apply that knowledge you have from school</t>
+  </si>
+  <si>
+    <t>rstachel@gmail.com</t>
+  </si>
+  <si>
+    <t>I'm retired so I don't have direct contacts. But looking outside the computer industry in technology driven areas like health care might be promising. Biotech, in Massachusetts. Emphasize data science skills.</t>
+  </si>
+  <si>
+    <t>Bob Stachel</t>
+  </si>
+  <si>
+    <t>jameskong@brandeis.edu</t>
+  </si>
+  <si>
+    <t>Zebra Technologies</t>
+  </si>
+  <si>
+    <t>apply to a BUNCH, no such thing as too many as you can apply to 100 and still not get an interview, don't lose hope, also make sure to get your leetcode practice in</t>
+  </si>
+  <si>
+    <t>nicholas.gordon@shopify.com</t>
+  </si>
+  <si>
+    <t>Shopify</t>
+  </si>
+  <si>
+    <t>find a connection, be it someone you actually know (or can be introduced to) or generate ("hey we have X in common and I'm looking at your company", for example "we both went to Brandeis")</t>
+  </si>
+  <si>
+    <t>jered@convivian.com</t>
+  </si>
+  <si>
+    <t>Red Hat</t>
+  </si>
+  <si>
+    <t>Have past experience or an interest in open source software</t>
+  </si>
+  <si>
+    <t>shuranli@brandeis.edu</t>
+  </si>
+  <si>
+    <t>clarajnice@gmail.com</t>
+  </si>
+  <si>
+    <t>Squarespace</t>
+  </si>
+  <si>
+    <t>On a tactical note, I do think Squarespace hires for summer interns during the prior fall semester (so extended offers for summer 2023 interns in fall 2022), but there are definitely some companies who hire all throughout the spring to find summer interns. As a junior at Brandeis, I didn't receive an internship offer until April (this was in 2014). Hiatt used to have some partnerhips/listings for local companies who wanted to hire software development interns, and I believe that's how I was connected with Milcord which is a small R&amp;D firm in Waltham.</t>
+  </si>
+  <si>
+    <t>1. try to get a referral: get someone on LinkedIn maybe from Brandeis, or whoever has something similar to you. 2. apply to non-target companies first to gain experience and confidence. Practice whenever you can, don't wait til last minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEARN Academy is trying to promote internships in the Ruby/Rails community. </t>
+  </si>
+  <si>
+    <t>chantelle@learnacademy.org</t>
   </si>
 </sst>
 </file>
@@ -145,7 +235,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -461,259 +553,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1F76A8-0130-C446-9D0C-D4EA4DFF9EEB}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
+    <row r="12" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="187" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
+    <row r="14" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
+    <row r="15" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="fpstate=tldetail&amp;htivrt=jobs&amp;htiq=facebook+internship&amp;htidocid=kBV7bWXmAS4AAAAAAAAAAA%3D%3D" xr:uid="{909DAFEB-92DE-BB49-A30E-93C06EEED98B}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{C6FC8819-3A6B-8F48-AEAC-C4738F404E90}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{CE3656BA-DB1A-874F-B816-408BEFB64A14}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{B585DC4C-9744-944B-95AE-E40E9ACB47D3}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{03533F32-37A0-914D-8409-D169F14CD492}"/>
-    <hyperlink ref="D5" r:id="rId6" xr:uid="{80CF4788-BA5C-E44C-9909-87342E820839}"/>
-    <hyperlink ref="D4" r:id="rId7" xr:uid="{2C085D38-CBEB-D640-8234-C83D3873C5EE}"/>
-    <hyperlink ref="D3" r:id="rId8" xr:uid="{C446EC75-242A-584F-A922-3FB884B0CC6B}"/>
-    <hyperlink ref="D2" r:id="rId9" xr:uid="{8618966E-5F5F-0E4B-88B5-065B316B3433}"/>
-    <hyperlink ref="D10" r:id="rId10" xr:uid="{65FA86FC-5D50-CC49-B43D-B9F6F0563C8F}"/>
-    <hyperlink ref="D11" r:id="rId11" xr:uid="{E2F0352A-3565-0645-A246-F7E9D77505F3}"/>
-    <hyperlink ref="D12" r:id="rId12" xr:uid="{B2951CC3-C087-9E4C-B9F3-0B4749403891}"/>
-    <hyperlink ref="D13" r:id="rId13" xr:uid="{3BC03A1B-9B40-824D-8A8E-D02E1E761D17}"/>
-    <hyperlink ref="D14" r:id="rId14" xr:uid="{DAE23DF7-16AD-4F4E-A9F9-B5330639D476}"/>
-    <hyperlink ref="D15" r:id="rId15" xr:uid="{46075C5F-C294-5746-9254-E99DFFD78C58}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{AAF6EBA5-FC43-0C42-87A4-AAA67E8A09CA}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{1C8B91C2-3B6B-044E-9168-24498F7CE141}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{9C7531CA-CC48-C246-9C5A-1F24886375AA}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{644B3F42-DD28-7E44-BFEA-451702DF50F2}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{815E8B3B-5331-9840-B7FE-8FFDF4FBF2C9}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{17CF8206-DC49-024F-B798-7C575B61F1B3}"/>
+    <hyperlink ref="A6" r:id="rId7" xr:uid="{C2C8D582-25F6-1A4D-93BC-3FF4496F601B}"/>
+    <hyperlink ref="A7" r:id="rId8" xr:uid="{FFD638B8-4348-DC44-9223-1400BA67FA8F}"/>
+    <hyperlink ref="A8" r:id="rId9" xr:uid="{5DF927A2-2230-9247-BA85-540C510222B6}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{B7682942-982C-0F49-B55F-4C54540E0603}"/>
+    <hyperlink ref="A14" r:id="rId11" xr:uid="{A1151740-7154-6D4E-81FD-5BFE3F6D3105}"/>
+    <hyperlink ref="A15" r:id="rId12" xr:uid="{CAF85794-7DE2-124C-AC80-AA25403526FB}"/>
+    <hyperlink ref="A16" r:id="rId13" xr:uid="{98177152-E8FC-D545-B3F0-A27FBB2F3835}"/>
+    <hyperlink ref="A17" r:id="rId14" xr:uid="{65EEC40A-1490-0149-B8F1-EC852D17ABB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Internship_list.xlsx
+++ b/Internship_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimkellypercine/Desktop/Brandeis_internship_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B307F1B-3847-AF4A-8E34-C4021129FA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25D6E04-CDDE-264A-9C79-4712CD1B29A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2520" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
+    <workbookView xWindow="3820" yWindow="1020" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,12 +556,13 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D1" sqref="D1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
@@ -818,20 +819,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{AAF6EBA5-FC43-0C42-87A4-AAA67E8A09CA}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{1C8B91C2-3B6B-044E-9168-24498F7CE141}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{9C7531CA-CC48-C246-9C5A-1F24886375AA}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{644B3F42-DD28-7E44-BFEA-451702DF50F2}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{815E8B3B-5331-9840-B7FE-8FFDF4FBF2C9}"/>
-    <hyperlink ref="D3" r:id="rId6" xr:uid="{17CF8206-DC49-024F-B798-7C575B61F1B3}"/>
-    <hyperlink ref="A6" r:id="rId7" xr:uid="{C2C8D582-25F6-1A4D-93BC-3FF4496F601B}"/>
-    <hyperlink ref="A7" r:id="rId8" xr:uid="{FFD638B8-4348-DC44-9223-1400BA67FA8F}"/>
-    <hyperlink ref="A8" r:id="rId9" xr:uid="{5DF927A2-2230-9247-BA85-540C510222B6}"/>
-    <hyperlink ref="A12" r:id="rId10" xr:uid="{B7682942-982C-0F49-B55F-4C54540E0603}"/>
-    <hyperlink ref="A14" r:id="rId11" xr:uid="{A1151740-7154-6D4E-81FD-5BFE3F6D3105}"/>
-    <hyperlink ref="A15" r:id="rId12" xr:uid="{CAF85794-7DE2-124C-AC80-AA25403526FB}"/>
-    <hyperlink ref="A16" r:id="rId13" xr:uid="{98177152-E8FC-D545-B3F0-A27FBB2F3835}"/>
-    <hyperlink ref="A17" r:id="rId14" xr:uid="{65EEC40A-1490-0149-B8F1-EC852D17ABB9}"/>
+    <hyperlink ref="A17" r:id="rId1" xr:uid="{65EEC40A-1490-0149-B8F1-EC852D17ABB9}"/>
+    <hyperlink ref="A16" r:id="rId2" xr:uid="{98177152-E8FC-D545-B3F0-A27FBB2F3835}"/>
+    <hyperlink ref="A15" r:id="rId3" xr:uid="{CAF85794-7DE2-124C-AC80-AA25403526FB}"/>
+    <hyperlink ref="A14" r:id="rId4" xr:uid="{A1151740-7154-6D4E-81FD-5BFE3F6D3105}"/>
+    <hyperlink ref="A12" r:id="rId5" xr:uid="{B7682942-982C-0F49-B55F-4C54540E0603}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{5DF927A2-2230-9247-BA85-540C510222B6}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{FFD638B8-4348-DC44-9223-1400BA67FA8F}"/>
+    <hyperlink ref="A6" r:id="rId8" xr:uid="{C2C8D582-25F6-1A4D-93BC-3FF4496F601B}"/>
+    <hyperlink ref="A5" r:id="rId9" xr:uid="{644B3F42-DD28-7E44-BFEA-451702DF50F2}"/>
+    <hyperlink ref="A4" r:id="rId10" xr:uid="{9C7531CA-CC48-C246-9C5A-1F24886375AA}"/>
+    <hyperlink ref="A3" r:id="rId11" xr:uid="{1C8B91C2-3B6B-044E-9168-24498F7CE141}"/>
+    <hyperlink ref="D3" r:id="rId12" xr:uid="{17CF8206-DC49-024F-B798-7C575B61F1B3}"/>
+    <hyperlink ref="D6" r:id="rId13" xr:uid="{815E8B3B-5331-9840-B7FE-8FFDF4FBF2C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Internship_list.xlsx
+++ b/Internship_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimkellypercine/Desktop/Brandeis_internship_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25D6E04-CDDE-264A-9C79-4712CD1B29A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E116BE4-4D3E-B24A-B887-046D26FCDFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="1020" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Amazon</t>
   </si>
@@ -53,9 +53,6 @@
     <t>COMPANY</t>
   </si>
   <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
     <t>RANK 1-5</t>
   </si>
   <si>
@@ -68,27 +65,15 @@
     <t>Start practicing behavioral/basic interview questions (questions about what you would do in certain situations in the workspace) and have in your mind certain experiences from your life that you can draw from to answer them.</t>
   </si>
   <si>
-    <t>fduverglas@brandeis.edu</t>
-  </si>
-  <si>
     <t>PayPal</t>
   </si>
   <si>
     <t>Prepare early, apply early, don’t be discouraged</t>
   </si>
   <si>
-    <t>danielhariyanto@brandeis.edu</t>
-  </si>
-  <si>
-    <t>blacy@brandeis.edu</t>
-  </si>
-  <si>
     <t>When you take the time outside the classroom to develop your skills in practical area in which you enjoy your employer will take notice and it will benefit you in the long run in comparison to those who don't take the initiative to hold themselves accountable while they pursue things in which they are most passionate.</t>
   </si>
   <si>
-    <t>andrewng@brandeis.edu</t>
-  </si>
-  <si>
     <t>CommScope</t>
   </si>
   <si>
@@ -98,75 +83,51 @@
     <t xml:space="preserve">1. start apply early (I started applying around June and got the first offer late August for next year internship) 2. build a great resume (ask your friends, people in the industry to read your resume, the more the better), do side projects, hackathons, etc... things that showcase the skills that companies are looking for </t>
   </si>
   <si>
-    <t>rick@treitman.com</t>
-  </si>
-  <si>
     <t>Get started early.</t>
   </si>
   <si>
     <t>Adobe</t>
   </si>
   <si>
-    <t>steve.beckhardt@gmail.com</t>
-  </si>
-  <si>
     <t>Sonos</t>
   </si>
   <si>
     <t>Gnar company</t>
   </si>
   <si>
-    <t>lfreed@irobot.com</t>
-  </si>
-  <si>
     <t>iRobot</t>
   </si>
   <si>
     <t>Talk about yourself. projects, things you did to apply that knowledge you have from school</t>
   </si>
   <si>
-    <t>rstachel@gmail.com</t>
-  </si>
-  <si>
     <t>I'm retired so I don't have direct contacts. But looking outside the computer industry in technology driven areas like health care might be promising. Biotech, in Massachusetts. Emphasize data science skills.</t>
   </si>
   <si>
     <t>Bob Stachel</t>
   </si>
   <si>
-    <t>jameskong@brandeis.edu</t>
-  </si>
-  <si>
     <t>Zebra Technologies</t>
   </si>
   <si>
+    <t>https://www.zebra.com/us/en/about-zebra/careers.html</t>
+  </si>
+  <si>
     <t>apply to a BUNCH, no such thing as too many as you can apply to 100 and still not get an interview, don't lose hope, also make sure to get your leetcode practice in</t>
   </si>
   <si>
-    <t>nicholas.gordon@shopify.com</t>
-  </si>
-  <si>
     <t>Shopify</t>
   </si>
   <si>
     <t>find a connection, be it someone you actually know (or can be introduced to) or generate ("hey we have X in common and I'm looking at your company", for example "we both went to Brandeis")</t>
   </si>
   <si>
-    <t>jered@convivian.com</t>
-  </si>
-  <si>
     <t>Red Hat</t>
   </si>
   <si>
     <t>Have past experience or an interest in open source software</t>
   </si>
   <si>
-    <t>shuranli@brandeis.edu</t>
-  </si>
-  <si>
-    <t>clarajnice@gmail.com</t>
-  </si>
-  <si>
     <t>Squarespace</t>
   </si>
   <si>
@@ -179,7 +140,40 @@
     <t xml:space="preserve">LEARN Academy is trying to promote internships in the Ruby/Rails community. </t>
   </si>
   <si>
-    <t>chantelle@learnacademy.org</t>
+    <t>https://www.publicissapient.com/</t>
+  </si>
+  <si>
+    <t>http://paypal.com/</t>
+  </si>
+  <si>
+    <t>http://microsoft.com/</t>
+  </si>
+  <si>
+    <t>https://jobs.commscope.com/search/?createNewAlert=false&amp;q=&amp;locationsearch=&amp;optionsFacetsDD_title=&amp;optionsFacetsDD_department=Early+Careers&amp;optionsFacetsDD_location=&amp;optionsFacetsDD_country=</t>
+  </si>
+  <si>
+    <t>https://careers.imc.com/ap/en/c/internships-jobs</t>
+  </si>
+  <si>
+    <t>https://irobot.wd5.myworkdayjobs.com/iRobot?_ga=2.144828087.2021781397.1627654807-1547478520.1627654805</t>
+  </si>
+  <si>
+    <t>https://careers-redhat.icims.com/jobs/search?ss=1&amp;searchKeyword=internship</t>
+  </si>
+  <si>
+    <t>https://www.squarespace.com/careers/early-career</t>
+  </si>
+  <si>
+    <t>https://careers.google.com/jobs/results/?employment_type=INTERN&amp;jlo=en_US&amp;q=STEP</t>
+  </si>
+  <si>
+    <t>Application List</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.shopify.com/careers/dev-degree-2023-remote-americas_8f2a8000-42e4-49a9-b0ec-d84bc367bb0f</t>
   </si>
 </sst>
 </file>
@@ -556,7 +550,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,7 +558,7 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -573,27 +567,27 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -605,25 +599,25 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -635,10 +629,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -650,171 +644,171 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="187" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -830,8 +824,8 @@
     <hyperlink ref="A5" r:id="rId9" xr:uid="{644B3F42-DD28-7E44-BFEA-451702DF50F2}"/>
     <hyperlink ref="A4" r:id="rId10" xr:uid="{9C7531CA-CC48-C246-9C5A-1F24886375AA}"/>
     <hyperlink ref="A3" r:id="rId11" xr:uid="{1C8B91C2-3B6B-044E-9168-24498F7CE141}"/>
-    <hyperlink ref="D3" r:id="rId12" xr:uid="{17CF8206-DC49-024F-B798-7C575B61F1B3}"/>
-    <hyperlink ref="D6" r:id="rId13" xr:uid="{815E8B3B-5331-9840-B7FE-8FFDF4FBF2C9}"/>
+    <hyperlink ref="A2" r:id="rId12" xr:uid="{A4B7B17A-AD65-D549-B57F-946EC5B5518E}"/>
+    <hyperlink ref="D2" r:id="rId13" xr:uid="{D8C14069-FF2F-3845-BB02-DD364A0DD733}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Internship_list.xlsx
+++ b/Internship_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimkellypercine/Desktop/Brandeis_internship_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E116BE4-4D3E-B24A-B887-046D26FCDFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652E03DB-F54F-A145-9B2F-751F6662AF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="1020" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Amazon</t>
   </si>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1F76A8-0130-C446-9D0C-D4EA4DFF9EEB}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,6 +702,9 @@
       </c>
       <c r="B10" s="1">
         <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>44</v>

--- a/Internship_list.xlsx
+++ b/Internship_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimkellypercine/Desktop/Brandeis_internship_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652E03DB-F54F-A145-9B2F-751F6662AF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D738E4C0-9FE2-804D-8F3C-B0DBD2738D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="1020" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
   </bookViews>
@@ -549,15 +549,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1F76A8-0130-C446-9D0C-D4EA4DFF9EEB}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -661,7 +661,7 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="3"/>
@@ -829,6 +829,7 @@
     <hyperlink ref="A3" r:id="rId11" xr:uid="{1C8B91C2-3B6B-044E-9168-24498F7CE141}"/>
     <hyperlink ref="A2" r:id="rId12" xr:uid="{A4B7B17A-AD65-D549-B57F-946EC5B5518E}"/>
     <hyperlink ref="D2" r:id="rId13" xr:uid="{D8C14069-FF2F-3845-BB02-DD364A0DD733}"/>
+    <hyperlink ref="D7" r:id="rId14" xr:uid="{28F72F24-E38E-4041-B16D-83448F320C32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Internship_list.xlsx
+++ b/Internship_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimkellypercine/Desktop/Brandeis_internship_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D738E4C0-9FE2-804D-8F3C-B0DBD2738D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB34D60-4609-BD4B-B8F2-EA020C6AF7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="1020" windowWidth="28040" windowHeight="16940" xr2:uid="{E5EF8726-1FCE-1B45-A9E5-5959CF12D92D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Amazon</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>http://microsoft.com/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.jobs/en/teams/internships-for-students</t>
   </si>
   <si>
     <t>https://jobs.commscope.com/search/?createNewAlert=false&amp;q=&amp;locationsearch=&amp;optionsFacetsDD_title=&amp;optionsFacetsDD_department=Early+Careers&amp;optionsFacetsDD_location=&amp;optionsFacetsDD_country=</t>
@@ -549,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1F76A8-0130-C446-9D0C-D4EA4DFF9EEB}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -587,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -621,7 +624,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -636,7 +639,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -647,11 +650,11 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -662,7 +665,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -677,7 +680,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -692,7 +695,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -704,10 +707,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -722,7 +725,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -737,7 +740,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -752,7 +755,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -782,7 +785,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -797,7 +800,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
@@ -811,7 +814,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
